--- a/Taller 3/Matemáticas computacionales Taller 3.xlsx
+++ b/Taller 3/Matemáticas computacionales Taller 3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexis\Git\Git\Talleres\Taller 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C8EFAE-9E43-4776-99EB-DC255654059E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF0D5A-7551-4D37-98DE-BA74FF2825E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0857143-466D-4A99-91AF-C859E2680754}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="27">
   <si>
     <t>P</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>x∧V</t>
+  </si>
+  <si>
+    <t>Propiedad de complementos</t>
+  </si>
+  <si>
+    <t>P'</t>
   </si>
 </sst>
 </file>
@@ -258,15 +264,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA0A864-DEB9-4446-AAB2-C14604B8BC4A}">
-  <dimension ref="B3:V24"/>
+  <dimension ref="B3:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,38 +607,49 @@
     <col min="19" max="19" width="5" customWidth="1"/>
     <col min="20" max="20" width="4.7109375" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="X3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,13 +668,13 @@
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -681,8 +698,14 @@
       <c r="U5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -698,10 +721,10 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -725,14 +748,20 @@
       <c r="Q6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,16 +777,16 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -775,14 +804,20 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -798,10 +833,10 @@
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -826,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -842,10 +877,10 @@
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -870,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -908,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -939,14 +974,14 @@
       <c r="Q11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -977,14 +1012,14 @@
       <c r="Q12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1016,21 +1051,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,16 +1095,16 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="H16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1367,15 +1402,16 @@
       <c r="Q24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
